--- a/plot/v2-get-node.xlsx
+++ b/plot/v2-get-node.xlsx
@@ -19,16 +19,16 @@
     <t>concurrent</t>
   </si>
   <si>
-    <t>Sanic Iterasi 1 (Alvin))</t>
+    <t>Sanic Iter 1 (Ferdiansyah)</t>
   </si>
   <si>
-    <t>Sanic Iterasi 2 (Alvin))</t>
+    <t>Sanic Iter 2 (Ferdiansyah)</t>
   </si>
   <si>
-    <t>Fiber + Go-json Iterasi 1</t>
+    <t>Fiber + Go-json Iter 1</t>
   </si>
   <si>
-    <t>Fiber + Go-json Iterasi 2</t>
+    <t>Fiber + Go-json Iter 2</t>
   </si>
 </sst>
 </file>
